--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -45,8 +45,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,167 +449,167 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="7" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="23.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="40.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="86" customWidth="1" style="1" min="3" max="3"/>
+    <col width="30.28515625" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>frase</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>traducao</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>nivel</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>45678</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>usuario novo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Que horas são?</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Basico</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>356</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>What time is it?</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Que horas são?</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Basico</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>356</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>What time is it?</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Que horas são?</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>Basico</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>356</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>What time is it?</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Que horas são?</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>Basico</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>356</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>What time is it?</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Que horas são?</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>Basico</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>356</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>usuario novo</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Que horas são?</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>Basico</t>
         </is>
@@ -618,17 +621,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>She wishes she had stayed in touch with her old friends.</t>
+          <t>If he had pursued higher education, he would have more job opportunities now.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ela gostaria de ter mantido contato com seus antigos amigos.</t>
+          <t>Se tivesse buscado uma educação superior, teria mais oportunidades de emprego agora.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Intermediário</t>
+          <t>Intermediário Avançado</t>
         </is>
       </c>
     </row>

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -447,10 +447,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -617,21 +617,61 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1204900262</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>She regrets not having pursued her passion for art.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ela lamenta não ter seguido sua paixão pela arte.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Intermediário Avançado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6622066705</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>If they had saved more money, they would be in a better financial situation now.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Se tivessem economizado mais dinheiro, estariam em uma situação financeira melhor agora.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Intermediário Avançado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>1972887851</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>If he had pursued higher education, he would have more job opportunities now.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Se tivesse buscado uma educação superior, teria mais oportunidades de emprego agora.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Intermediário Avançado</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jake is learning to ride a bike. His dad is teaching him how to balance and pedal. At first, Jake wobbles and falls a lot. But with practice, he gets better. One sunny afternoon, Jake finally rides his bike without falling. He feels proud of himself. Jake's dad cheers him on from the sidelines.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Jake está aprendendo a andar de bicicleta. Seu pai está ensinando-o a equilibrar e pedalar. No começo, Jake vacila e cai muito. Mas com a prática, ele melhora. Uma tarde ensolarada, Jake finalmente anda de bicicleta sem cair. Ele se sente orgulhoso de si mesmo. O pai de Jake o aplaude da lateral.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Básico</t>
         </is>
       </c>
     </row>

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -661,12 +661,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jake is learning to ride a bike. His dad is teaching him how to balance and pedal. At first, Jake wobbles and falls a lot. But with practice, he gets better. One sunny afternoon, Jake finally rides his bike without falling. He feels proud of himself. Jake's dad cheers him on from the sidelines.</t>
+          <t>Jack helps his dad fix a leaky faucet in the kitchen. They turn off the water and gather their tools: a wrench, pliers, and pipe tape. Jack watches as his dad shows him how to tighten the faucet and replace the washer. With teamwork and patience, they successfully repair the faucet, and Jack feels proud to have helped his dad.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jake está aprendendo a andar de bicicleta. Seu pai está ensinando-o a equilibrar e pedalar. No começo, Jake vacila e cai muito. Mas com a prática, ele melhora. Uma tarde ensolarada, Jake finalmente anda de bicicleta sem cair. Ele se sente orgulhoso de si mesmo. O pai de Jake o aplaude da lateral.</t>
+          <t>Jack ajuda seu pai a consertar uma torneira vazando na cozinha. Eles desligam a água e reúnem suas ferramentas: uma chave inglesa, alicates e fita para canos. Jack observa enquanto seu pai mostra a ele como apertar a torneira e substituir a arruela. Com trabalho em equipe e paciência, eles consertam com sucesso a torneira, e Jack se sente orgulhoso por ter ajudado seu pai.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
@@ -661,17 +661,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jack helps his dad fix a leaky faucet in the kitchen. They turn off the water and gather their tools: a wrench, pliers, and pipe tape. Jack watches as his dad shows him how to tighten the faucet and replace the washer. With teamwork and patience, they successfully repair the faucet, and Jack feels proud to have helped his dad.</t>
+          <t>If they had known about the sale, they would have bought more.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jack ajuda seu pai a consertar uma torneira vazando na cozinha. Eles desligam a água e reúnem suas ferramentas: uma chave inglesa, alicates e fita para canos. Jack observa enquanto seu pai mostra a ele como apertar a torneira e substituir a arruela. Com trabalho em equipe e paciência, eles consertam com sucesso a torneira, e Jack se sente orgulhoso por ter ajudado seu pai.</t>
+          <t>Se eles tivessem sabido da liquidação, eles teriam comprado mais.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Básico</t>
+          <t>Intermediário</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1330466649</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarah visits the zoo with her family. They see all kinds of animals: lions, tigers, elephants, and giraffes. Sarah's favorite animals are the monkeys. She giggles as she watches them swing from branch to branch. They also visit the petting zoo, where Sarah feeds goats and sheep. At the end of the day, Sarah leaves the zoo with a big smile on her face, feeling grateful for the wonderful day spent with her family and the animals.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sarah visita o zoológico com sua família. Eles veem todos os tipos de animais: leões, tigres, elefantes e girafas. Os animais favoritos de Sarah são os macacos. Ela ri enquanto os vê balançar de galho em galho. Eles também visitam o zoológico de estimação, onde Sarah alimenta cabras e ovelhas. No final do dia, Sarah sai do zoológico com um grande sorriso no rosto, se sentindo grata pelo dia maravilhoso passado com sua família e os animais.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fluente</t>
         </is>
       </c>
     </row>

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -621,17 +621,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>She regrets not having pursued her passion for art.</t>
+          <t>Mia and her friends are putting on a play for their parents. They rehearse their lines and practice their moves every day after school. Mia plays the lead role of a brave princess. She wears a sparkly costume and a shiny crown. On the day of the performance, Mia feels nervous but excited. When the curtain rises, she steps onto the stage with confidence and delivers her lines perfectly.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ela lamenta não ter seguido sua paixão pela arte.</t>
+          <t>Mia e seus amigos estão encenando uma peça para seus pais. Eles ensaiam suas falas e praticam seus movimentos todos os dias depois da escola. Mia interpreta o papel principal de uma princesa corajosa. Ela usa um traje brilhante e uma coroa reluzente. No dia da apresentação, Mia se sente nervosa, mas animada. Quando o pano sobe, ela sobe no palco com confiança e entrega suas falas perfeitamente.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Intermediário Avançado</t>
+          <t>Básico</t>
         </is>
       </c>
     </row>

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -641,12 +641,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>If they had saved more money, they would be in a better financial situation now.</t>
+          <t>If he had pursued his passion, he might be happier now.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Se tivessem economizado mais dinheiro, estariam em uma situação financeira melhor agora.</t>
+          <t>Se tivesse seguido sua paixão, poderia estar mais feliz agora.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>If they had known about the sale, they would have bought more.</t>
+          <t>She wishes she had traveled more before starting a family.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Se eles tivessem sabido da liquidação, eles teriam comprado mais.</t>
+          <t>Ela gostaria de ter viajado mais antes de começar uma família.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -661,17 +661,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>She wishes she had traveled more before starting a family.</t>
+          <t>Tim and his friends have a sleepover at his house. They play video games, watch movies, and tell ghost stories. Tim's mom makes pizza for dinner, and they all eat together in the living room. As the night gets late, they set up sleeping bags in the den and stay up talking until they fall asleep one by one.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ela gostaria de ter viajado mais antes de começar uma família.</t>
+          <t>Tim e seus amigos fazem uma festa do pijama na casa dele. Eles jogam videogame, assistem a filmes e contam histórias de fantasmas. A mãe de Tim faz pizza para o jantar, e todos comem juntos na sala de estar. Conforme a noite avança, eles arrumam sacos de dormir na sala de estar e ficam conversando até adormecerem um por um.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Intermediário</t>
+          <t>Básico</t>
         </is>
       </c>
     </row>

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -661,17 +661,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tim and his friends have a sleepover at his house. They play video games, watch movies, and tell ghost stories. Tim's mom makes pizza for dinner, and they all eat together in the living room. As the night gets late, they set up sleeping bags in the den and stay up talking until they fall asleep one by one.</t>
+          <t>She wishes she had chosen a different career path.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tim e seus amigos fazem uma festa do pijama na casa dele. Eles jogam videogame, assistem a filmes e contam histórias de fantasmas. A mãe de Tim faz pizza para o jantar, e todos comem juntos na sala de estar. Conforme a noite avança, eles arrumam sacos de dormir na sala de estar e ficam conversando até adormecerem um por um.</t>
+          <t>Ela gostaria de ter escolhido um caminho de carreira diferente.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Básico</t>
+          <t>Intermediário</t>
         </is>
       </c>
     </row>

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -1,33 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faell\OneDrive\Documentos\GitHub\EnglishBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0722C2-213F-46A3-83BE-EBBDC9F91E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>frase</t>
+  </si>
+  <si>
+    <t>traducao</t>
+  </si>
+  <si>
+    <t>nivel</t>
+  </si>
+  <si>
+    <t>45678</t>
+  </si>
+  <si>
+    <t>usuario novo</t>
+  </si>
+  <si>
+    <t>Que horas são?</t>
+  </si>
+  <si>
+    <t>Basico</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>What time is it?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,83 +86,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,260 +423,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="23.140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="40.42578125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="86" customWidth="1" style="1" min="3" max="3"/>
-    <col width="30.28515625" customWidth="1" style="1" min="4" max="4"/>
+    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>frase</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>traducao</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>nivel</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>45678</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>usuario novo</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Que horas são?</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Basico</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>What time is it?</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Que horas são?</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Basico</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>What time is it?</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Que horas são?</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Basico</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>What time is it?</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Que horas são?</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Basico</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>What time is it?</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Que horas são?</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Basico</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>usuario novo</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Que horas são?</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Basico</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1204900262</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mia and her friends are putting on a play for their parents. They rehearse their lines and practice their moves every day after school. Mia plays the lead role of a brave princess. She wears a sparkly costume and a shiny crown. On the day of the performance, Mia feels nervous but excited. When the curtain rises, she steps onto the stage with confidence and delivers her lines perfectly.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Mia e seus amigos estão encenando uma peça para seus pais. Eles ensaiam suas falas e praticam seus movimentos todos os dias depois da escola. Mia interpreta o papel principal de uma princesa corajosa. Ela usa um traje brilhante e uma coroa reluzente. No dia da apresentação, Mia se sente nervosa, mas animada. Quando o pano sobe, ela sobe no palco com confiança e entrega suas falas perfeitamente.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Básico</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>6622066705</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>If he had pursued his passion, he might be happier now.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Se tivesse seguido sua paixão, poderia estar mais feliz agora.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Intermediário Avançado</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1972887851</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>She wishes she had chosen a different career path.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ela gostaria de ter escolhido um caminho de carreira diferente.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Intermediário</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1330466649</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sarah visits the zoo with her family. They see all kinds of animals: lions, tigers, elephants, and giraffes. Sarah's favorite animals are the monkeys. She giggles as she watches them swing from branch to branch. They also visit the petting zoo, where Sarah feeds goats and sheep. At the end of the day, Sarah leaves the zoo with a big smile on her face, feeling grateful for the wonderful day spent with her family and the animals.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sarah visita o zoológico com sua família. Eles veem todos os tipos de animais: leões, tigres, elefantes e girafas. Os animais favoritos de Sarah são os macacos. Ela ri enquanto os vê balançar de galho em galho. Eles também visitam o zoológico de estimação, onde Sarah alimenta cabras e ovelhas. No final do dia, Sarah sai do zoológico com um grande sorriso no rosto, se sentindo grata pelo dia maravilhoso passado com sua família e os animais.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fluente</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faell\OneDrive\Documentos\GitHub\EnglishBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0722C2-213F-46A3-83BE-EBBDC9F91E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED4C9A5-B1BE-4867-8C3C-515ABFAB5081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23445" yWindow="240" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -34,22 +34,13 @@
     <t>nivel</t>
   </si>
   <si>
-    <t>45678</t>
-  </si>
-  <si>
-    <t>usuario novo</t>
-  </si>
-  <si>
-    <t>Que horas são?</t>
-  </si>
-  <si>
-    <t>Basico</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>What time is it?</t>
+    <t>number</t>
+  </si>
+  <si>
+    <t>ultima mensagem</t>
+  </si>
+  <si>
+    <t>Frases  / Aprender</t>
   </si>
 </sst>
 </file>
@@ -424,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,9 +427,12 @@
     <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="86" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,89 +445,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Usuarios.xlsx
+++ b/Usuarios.xlsx
@@ -1,64 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faell\OneDrive\Documentos\GitHub\EnglishBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED4C9A5-B1BE-4867-8C3C-515ABFAB5081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23445" yWindow="240" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>frase</t>
-  </si>
-  <si>
-    <t>traducao</t>
-  </si>
-  <si>
-    <t>nivel</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>ultima mensagem</t>
-  </si>
-  <si>
-    <t>Frases  / Aprender</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,24 +46,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,48 +442,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="86" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col width="23.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="40.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="86" customWidth="1" style="1" min="3" max="3"/>
+    <col width="30.28515625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="15.5703125" customWidth="1" min="5" max="5"/>
+    <col width="61.5703125" customWidth="1" min="6" max="6"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>frase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>traducao</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>nivel</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ultima comando</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Frases  / Aprender</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1972887851</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>If they had finished their work earlier, they could have gone to the party.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Se eles tivessem terminado o trabalho mais cedo, eles poderiam ter ido à festa.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Intermediário</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>/OK</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Frase</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>